--- a/experiments/20-01-22_15-22-34_all-cons.xlsx
+++ b/experiments/20-01-22_15-22-34_all-cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijiangh\Documents\pb_ws\pb-construction\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F567BB-54D1-4D0B-9BDE-48D326C5FD8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6899CA-140A-4697-A41E-25AD4941592C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="102">
   <si>
     <t>config_id</t>
   </si>
@@ -325,12 +325,15 @@
   <si>
     <t>Nodes: 162 | Ground: 14 | Elements: 306</t>
   </si>
+  <si>
+    <t>why does progression family completely fail here?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,14 +345,45 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -376,16 +410,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -686,15 +736,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T657"/>
+  <dimension ref="A1:U657"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1881,56 +1932,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G29">
-        <v>25</v>
-      </c>
-      <c r="H29">
+      <c r="G29" s="3">
+        <v>25</v>
+      </c>
+      <c r="H29" s="3">
         <v>3203.1990000000001</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>3827.5</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>0.75</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>6.5</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>1E-3</v>
       </c>
-      <c r="M29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29">
+      <c r="M29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="3">
         <v>786</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>632.5</v>
       </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29">
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2546,50 +2597,50 @@
         <v>111.75</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>7</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>1263.5</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>319</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>7</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>2E-3</v>
       </c>
-      <c r="M45" t="s">
-        <v>25</v>
-      </c>
-      <c r="N45" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45">
+      <c r="M45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="3">
         <v>384</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>106.75</v>
       </c>
     </row>
@@ -3205,50 +3256,50 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="61" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>7</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>3600</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>2061</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>594</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>8.25</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="3">
         <v>2E-3</v>
       </c>
-      <c r="M61" t="s">
-        <v>25</v>
-      </c>
-      <c r="N61" t="s">
-        <v>25</v>
-      </c>
-      <c r="O61">
+      <c r="M61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" s="3">
         <v>732</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>287.25</v>
       </c>
     </row>
@@ -5526,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5579,26 +5630,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
         <v>7</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D115" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5606,7 +5657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5656,7 +5707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5709,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5761,8 +5812,11 @@
       <c r="S119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U119" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5815,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5868,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5881,7 +5935,7 @@
       <c r="F122" t="s">
         <v>23</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="4">
         <v>0</v>
       </c>
       <c r="H122">
@@ -5915,7 +5969,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5928,7 +5982,7 @@
       <c r="F123" t="s">
         <v>24</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="4">
         <v>0</v>
       </c>
       <c r="H123">
@@ -5962,7 +6016,7 @@
         <v>561.75</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5975,7 +6029,7 @@
       <c r="F124" t="s">
         <v>26</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="4">
         <v>0</v>
       </c>
       <c r="H124">
@@ -6009,7 +6063,7 @@
         <v>1128.25</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6022,7 +6076,7 @@
       <c r="F125" t="s">
         <v>27</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="4">
         <v>0</v>
       </c>
       <c r="H125">
@@ -6056,7 +6110,7 @@
         <v>724.75</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6109,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6162,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6280,7 +6334,7 @@
       <c r="B131">
         <v>8</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D131" t="s">
@@ -6710,56 +6764,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+    <row r="141" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
         <v>139</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="6">
         <v>7</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G141">
-        <v>25</v>
-      </c>
-      <c r="H141">
+      <c r="G141" s="6">
+        <v>25</v>
+      </c>
+      <c r="H141" s="6">
         <v>2733.3649999999998</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="6">
         <v>4214</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="6">
         <v>0.75</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="6">
         <v>7.25</v>
       </c>
-      <c r="L141">
+      <c r="L141" s="6">
         <v>1E-3</v>
       </c>
-      <c r="M141" t="s">
-        <v>25</v>
-      </c>
-      <c r="N141" t="s">
-        <v>25</v>
-      </c>
-      <c r="O141">
+      <c r="M141" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O141" s="6">
         <v>75</v>
       </c>
-      <c r="P141">
+      <c r="P141" s="6">
         <v>0.25</v>
       </c>
-      <c r="Q141">
+      <c r="Q141" s="6">
         <v>1259.25</v>
       </c>
-      <c r="R141">
-        <v>1</v>
-      </c>
-      <c r="S141">
+      <c r="R141" s="6">
+        <v>1</v>
+      </c>
+      <c r="S141" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6987,7 +7041,7 @@
       <c r="B147">
         <v>9</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D147" t="s">
@@ -7277,7 +7331,7 @@
       <c r="F154" t="s">
         <v>23</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="4">
         <v>0</v>
       </c>
       <c r="H154">
@@ -7324,7 +7378,7 @@
       <c r="F155" t="s">
         <v>24</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="4">
         <v>0</v>
       </c>
       <c r="H155">
@@ -7371,7 +7425,7 @@
       <c r="F156" t="s">
         <v>26</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="4">
         <v>0</v>
       </c>
       <c r="H156">
@@ -7405,56 +7459,56 @@
         <v>718</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+    <row r="157" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
         <v>155</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="6">
         <v>7</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G157">
-        <v>25</v>
-      </c>
-      <c r="H157">
+      <c r="G157" s="6">
+        <v>25</v>
+      </c>
+      <c r="H157" s="6">
         <v>2804.2449999999999</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="6">
         <v>3224</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="6">
         <v>104.25</v>
       </c>
-      <c r="K157">
+      <c r="K157" s="6">
         <v>6.75</v>
       </c>
-      <c r="L157">
+      <c r="L157" s="6">
         <v>1E-3</v>
       </c>
-      <c r="M157" t="s">
-        <v>25</v>
-      </c>
-      <c r="N157" t="s">
-        <v>25</v>
-      </c>
-      <c r="O157">
+      <c r="M157" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N157" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O157" s="6">
         <v>158</v>
       </c>
-      <c r="P157">
+      <c r="P157" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q157">
+      <c r="Q157" s="6">
         <v>958.75</v>
       </c>
-      <c r="R157">
-        <v>1</v>
-      </c>
-      <c r="S157">
+      <c r="R157" s="6">
+        <v>1</v>
+      </c>
+      <c r="S157" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9024,7 +9078,7 @@
       <c r="B195">
         <v>12</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D195" t="s">
@@ -9290,7 +9344,7 @@
       <c r="F202" t="s">
         <v>23</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="4">
         <v>0</v>
       </c>
       <c r="H202">
@@ -9337,7 +9391,7 @@
       <c r="F203" t="s">
         <v>24</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="4">
         <v>0</v>
       </c>
       <c r="H203">
@@ -9384,7 +9438,7 @@
       <c r="F204" t="s">
         <v>26</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="4">
         <v>0</v>
       </c>
       <c r="H204">
@@ -9431,7 +9485,7 @@
       <c r="F205" t="s">
         <v>27</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="4">
         <v>0</v>
       </c>
       <c r="H205">
@@ -9683,7 +9737,7 @@
       <c r="B211">
         <v>13</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D211" t="s">
@@ -9890,7 +9944,7 @@
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
+      <c r="A217">
         <v>215</v>
       </c>
       <c r="B217">
@@ -9949,7 +10003,7 @@
       <c r="F218" t="s">
         <v>23</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="6">
         <v>50</v>
       </c>
       <c r="H218">
@@ -10102,7 +10156,7 @@
       <c r="F221" t="s">
         <v>27</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="6">
         <v>50</v>
       </c>
       <c r="H221">
@@ -13823,7 +13877,7 @@
       <c r="B307">
         <v>19</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D307" t="s">
@@ -14107,7 +14161,7 @@
       <c r="F314" t="s">
         <v>23</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="4">
         <v>0</v>
       </c>
       <c r="H314">
@@ -14154,7 +14208,7 @@
       <c r="F315" t="s">
         <v>24</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="4">
         <v>0</v>
       </c>
       <c r="H315">
@@ -14201,7 +14255,7 @@
       <c r="F316" t="s">
         <v>26</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="4">
         <v>0</v>
       </c>
       <c r="H316">
@@ -14248,7 +14302,7 @@
       <c r="F317" t="s">
         <v>27</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="4">
         <v>0</v>
       </c>
       <c r="H317">
@@ -15860,7 +15914,7 @@
       <c r="B355">
         <v>22</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D355" t="s">
@@ -16150,7 +16204,7 @@
       <c r="F362" t="s">
         <v>23</v>
       </c>
-      <c r="G362">
+      <c r="G362" s="4">
         <v>0</v>
       </c>
       <c r="H362">
@@ -16197,7 +16251,7 @@
       <c r="F363" t="s">
         <v>24</v>
       </c>
-      <c r="G363">
+      <c r="G363" s="4">
         <v>0</v>
       </c>
       <c r="H363">
@@ -16244,7 +16298,7 @@
       <c r="F364" t="s">
         <v>26</v>
       </c>
-      <c r="G364">
+      <c r="G364" s="4">
         <v>0</v>
       </c>
       <c r="H364">
@@ -16291,7 +16345,7 @@
       <c r="F365" t="s">
         <v>27</v>
       </c>
-      <c r="G365">
+      <c r="G365" s="4">
         <v>0</v>
       </c>
       <c r="H365">
@@ -17262,7 +17316,7 @@
       <c r="B387">
         <v>24</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D387" t="s">
@@ -17533,50 +17587,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A394" s="1">
+    <row r="394" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="7">
         <v>392</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="4">
         <v>4</v>
       </c>
-      <c r="E394" t="s">
+      <c r="E394" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F394" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G394">
-        <v>0</v>
-      </c>
-      <c r="H394">
+      <c r="G394" s="4">
+        <v>0</v>
+      </c>
+      <c r="H394" s="4">
         <v>3600</v>
       </c>
-      <c r="I394">
+      <c r="I394" s="4">
         <v>4867</v>
       </c>
-      <c r="J394">
+      <c r="J394" s="4">
         <v>1.25</v>
       </c>
-      <c r="K394">
+      <c r="K394" s="4">
         <v>9</v>
       </c>
-      <c r="L394">
+      <c r="L394" s="4">
         <v>2E-3</v>
       </c>
-      <c r="M394" t="s">
-        <v>25</v>
-      </c>
-      <c r="N394" t="s">
-        <v>25</v>
-      </c>
-      <c r="O394">
+      <c r="M394" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N394" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O394" s="4">
         <v>225</v>
       </c>
-      <c r="P394">
-        <v>0</v>
-      </c>
-      <c r="Q394">
+      <c r="P394" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q394" s="4">
         <v>1310.25</v>
       </c>
     </row>
@@ -20096,7 +20150,7 @@
       <c r="B451">
         <v>28</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C451" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D451" t="s">
@@ -20374,7 +20428,7 @@
       <c r="F458" t="s">
         <v>23</v>
       </c>
-      <c r="G458">
+      <c r="G458" s="4">
         <v>0</v>
       </c>
       <c r="H458">
@@ -20421,7 +20475,7 @@
       <c r="F459" t="s">
         <v>24</v>
       </c>
-      <c r="G459">
+      <c r="G459" s="4">
         <v>0</v>
       </c>
       <c r="H459">
@@ -20468,7 +20522,7 @@
       <c r="F460" t="s">
         <v>26</v>
       </c>
-      <c r="G460">
+      <c r="G460" s="4">
         <v>0</v>
       </c>
       <c r="H460">
@@ -20515,7 +20569,7 @@
       <c r="F461" t="s">
         <v>27</v>
       </c>
-      <c r="G461">
+      <c r="G461" s="4">
         <v>0</v>
       </c>
       <c r="H461">
@@ -21480,7 +21534,7 @@
       <c r="B483">
         <v>30</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C483" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D483" t="s">
@@ -21758,7 +21812,7 @@
       <c r="F490" t="s">
         <v>23</v>
       </c>
-      <c r="G490">
+      <c r="G490" s="4">
         <v>0</v>
       </c>
       <c r="H490">
@@ -21805,7 +21859,7 @@
       <c r="F491" t="s">
         <v>24</v>
       </c>
-      <c r="G491">
+      <c r="G491" s="4">
         <v>0</v>
       </c>
       <c r="H491">
@@ -21852,7 +21906,7 @@
       <c r="F492" t="s">
         <v>26</v>
       </c>
-      <c r="G492">
+      <c r="G492" s="4">
         <v>0</v>
       </c>
       <c r="H492">
@@ -21899,7 +21953,7 @@
       <c r="F493" t="s">
         <v>27</v>
       </c>
-      <c r="G493">
+      <c r="G493" s="4">
         <v>0</v>
       </c>
       <c r="H493">
@@ -22447,7 +22501,7 @@
       <c r="F506" t="s">
         <v>23</v>
       </c>
-      <c r="G506">
+      <c r="G506" s="4">
         <v>0</v>
       </c>
       <c r="H506">
@@ -22494,7 +22548,7 @@
       <c r="F507" t="s">
         <v>24</v>
       </c>
-      <c r="G507">
+      <c r="G507" s="4">
         <v>0</v>
       </c>
       <c r="H507">
@@ -22541,7 +22595,7 @@
       <c r="F508" t="s">
         <v>26</v>
       </c>
-      <c r="G508">
+      <c r="G508" s="4">
         <v>0</v>
       </c>
       <c r="H508">
@@ -22588,7 +22642,7 @@
       <c r="F509" t="s">
         <v>27</v>
       </c>
-      <c r="G509">
+      <c r="G509" s="4">
         <v>0</v>
       </c>
       <c r="H509">
@@ -23118,7 +23172,7 @@
       <c r="F522" t="s">
         <v>23</v>
       </c>
-      <c r="G522">
+      <c r="G522" s="4">
         <v>0</v>
       </c>
       <c r="H522">
@@ -23165,7 +23219,7 @@
       <c r="F523" t="s">
         <v>24</v>
       </c>
-      <c r="G523">
+      <c r="G523" s="4">
         <v>0</v>
       </c>
       <c r="H523">
@@ -23212,7 +23266,7 @@
       <c r="F524" t="s">
         <v>26</v>
       </c>
-      <c r="G524">
+      <c r="G524" s="4">
         <v>0</v>
       </c>
       <c r="H524">
@@ -23259,7 +23313,7 @@
       <c r="F525" t="s">
         <v>27</v>
       </c>
-      <c r="G525">
+      <c r="G525" s="4">
         <v>0</v>
       </c>
       <c r="H525">
@@ -24496,7 +24550,7 @@
       <c r="F554" t="s">
         <v>23</v>
       </c>
-      <c r="G554">
+      <c r="G554" s="4">
         <v>0</v>
       </c>
       <c r="H554">
@@ -24543,7 +24597,7 @@
       <c r="F555" t="s">
         <v>24</v>
       </c>
-      <c r="G555">
+      <c r="G555" s="4">
         <v>0</v>
       </c>
       <c r="H555">
@@ -24590,7 +24644,7 @@
       <c r="F556" t="s">
         <v>26</v>
       </c>
-      <c r="G556">
+      <c r="G556" s="4">
         <v>0</v>
       </c>
       <c r="H556">
@@ -24637,7 +24691,7 @@
       <c r="F557" t="s">
         <v>27</v>
       </c>
-      <c r="G557">
+      <c r="G557" s="4">
         <v>0</v>
       </c>
       <c r="H557">
@@ -25167,7 +25221,7 @@
       <c r="F570" t="s">
         <v>23</v>
       </c>
-      <c r="G570">
+      <c r="G570" s="4">
         <v>0</v>
       </c>
       <c r="H570">
@@ -25214,7 +25268,7 @@
       <c r="F571" t="s">
         <v>24</v>
       </c>
-      <c r="G571">
+      <c r="G571" s="4">
         <v>0</v>
       </c>
       <c r="H571">
@@ -25261,7 +25315,7 @@
       <c r="F572" t="s">
         <v>26</v>
       </c>
-      <c r="G572">
+      <c r="G572" s="4">
         <v>0</v>
       </c>
       <c r="H572">
@@ -25308,7 +25362,7 @@
       <c r="F573" t="s">
         <v>27</v>
       </c>
-      <c r="G573">
+      <c r="G573" s="4">
         <v>0</v>
       </c>
       <c r="H573">
@@ -27180,7 +27234,7 @@
       <c r="F618" t="s">
         <v>23</v>
       </c>
-      <c r="G618">
+      <c r="G618" s="4">
         <v>0</v>
       </c>
       <c r="H618">
@@ -27227,7 +27281,7 @@
       <c r="F619" t="s">
         <v>24</v>
       </c>
-      <c r="G619">
+      <c r="G619" s="4">
         <v>0</v>
       </c>
       <c r="H619">
@@ -27274,7 +27328,7 @@
       <c r="F620" t="s">
         <v>26</v>
       </c>
-      <c r="G620">
+      <c r="G620" s="4">
         <v>0</v>
       </c>
       <c r="H620">
@@ -27321,7 +27375,7 @@
       <c r="F621" t="s">
         <v>27</v>
       </c>
-      <c r="G621">
+      <c r="G621" s="4">
         <v>0</v>
       </c>
       <c r="H621">
@@ -27863,7 +27917,7 @@
       <c r="F634" t="s">
         <v>23</v>
       </c>
-      <c r="G634">
+      <c r="G634" s="4">
         <v>0</v>
       </c>
       <c r="H634">
@@ -27910,7 +27964,7 @@
       <c r="F635" t="s">
         <v>24</v>
       </c>
-      <c r="G635">
+      <c r="G635" s="4">
         <v>0</v>
       </c>
       <c r="H635">
@@ -27957,7 +28011,7 @@
       <c r="F636" t="s">
         <v>26</v>
       </c>
-      <c r="G636">
+      <c r="G636" s="4">
         <v>75</v>
       </c>
       <c r="H636">
@@ -28010,7 +28064,7 @@
       <c r="F637" t="s">
         <v>27</v>
       </c>
-      <c r="G637">
+      <c r="G637" s="4">
         <v>50</v>
       </c>
       <c r="H637">

--- a/experiments/20-01-22_15-22-34_all-cons.xlsx
+++ b/experiments/20-01-22_15-22-34_all-cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijiangh\Documents\pb_ws\pb-construction\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6899CA-140A-4697-A41E-25AD4941592C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C4491-FCDC-43C5-80B4-66BA845A8E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="103">
   <si>
     <t>config_id</t>
   </si>
@@ -328,12 +328,15 @@
   <si>
     <t>why does progression family completely fail here?</t>
   </si>
+  <si>
+    <t>Dijkstra: The two long cables keep coming back to the queue at the beginning of the search, while z will defer it</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,8 +364,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +393,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -410,12 +425,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -432,9 +448,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -738,14 +756,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="G219" sqref="G219"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="K493" sqref="K493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -6269,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6322,26 +6341,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
         <v>8</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D131" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6349,7 +6368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6399,7 +6418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6452,7 +6471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6505,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6558,7 +6577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6611,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6663,8 +6682,11 @@
       <c r="S138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6711,7 +6733,7 @@
         <v>373.5</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6764,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>139</v>
       </c>
@@ -6817,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6870,7 +6892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6923,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7041,7 +7063,7 @@
       <c r="B147">
         <v>9</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D147" t="s">
@@ -22211,7 +22233,7 @@
       <c r="B499">
         <v>31</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C499" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D499" t="s">
@@ -22900,7 +22922,7 @@
       <c r="B515">
         <v>32</v>
       </c>
-      <c r="C515" t="s">
+      <c r="C515" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D515" t="s">
@@ -24278,7 +24300,7 @@
       <c r="B547">
         <v>34</v>
       </c>
-      <c r="C547" t="s">
+      <c r="C547" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D547" t="s">
@@ -24949,7 +24971,7 @@
       <c r="B563">
         <v>35</v>
       </c>
-      <c r="C563" t="s">
+      <c r="C563" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D563" t="s">
@@ -26950,7 +26972,7 @@
       <c r="B611">
         <v>38</v>
       </c>
-      <c r="C611" t="s">
+      <c r="C611" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D611" t="s">
@@ -27633,7 +27655,7 @@
       <c r="B627">
         <v>39</v>
       </c>
-      <c r="C627" t="s">
+      <c r="C627" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D627" t="s">

--- a/experiments/20-01-22_15-22-34_all-cons.xlsx
+++ b/experiments/20-01-22_15-22-34_all-cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijiangh\Documents\pb_ws\pb-construction\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C4491-FCDC-43C5-80B4-66BA845A8E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08035EB4-A8E9-4DFB-96D4-F1431CD88BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4422" uniqueCount="103">
   <si>
     <t>config_id</t>
   </si>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="K493" sqref="K493"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="H217" sqref="H217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10381,10 +10381,10 @@
       <c r="E225" t="s">
         <v>29</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="6">
         <v>75</v>
       </c>
       <c r="H225">
@@ -26914,13 +26914,13 @@
       <c r="B609">
         <v>11</v>
       </c>
-      <c r="E609" t="s">
+      <c r="E609" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F609" t="s">
+      <c r="F609" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G609">
+      <c r="G609" s="6">
         <v>75</v>
       </c>
       <c r="H609">

--- a/experiments/20-01-22_15-22-34_all-cons.xlsx
+++ b/experiments/20-01-22_15-22-34_all-cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijiangh\Documents\pb_ws\pb-construction\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08035EB4-A8E9-4DFB-96D4-F1431CD88BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62DBB9A-9AC2-40AE-BD26-31F128A6BBDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4422" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="105">
   <si>
     <t>config_id</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Dijkstra: The two long cables keep coming back to the queue at the beginning of the search, while z will defer it</t>
+  </si>
+  <si>
+    <t>constrast between lookahead &amp; progression</t>
+  </si>
+  <si>
+    <t>compare with bunny full quad</t>
   </si>
 </sst>
 </file>
@@ -756,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="H217" sqref="H217"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,7 +1551,7 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
@@ -1808,10 +1814,10 @@
       <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>25</v>
       </c>
       <c r="H26">
@@ -1861,10 +1867,10 @@
       <c r="E27" t="s">
         <v>28</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>0</v>
       </c>
       <c r="H27">
@@ -1908,10 +1914,10 @@
       <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>50</v>
       </c>
       <c r="H28">
@@ -1961,10 +1967,10 @@
       <c r="E29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <v>25</v>
       </c>
       <c r="H29" s="3">
@@ -2017,7 +2023,7 @@
       <c r="F30" t="s">
         <v>23</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="6">
         <v>100</v>
       </c>
       <c r="H30">
@@ -2222,7 +2228,7 @@
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
@@ -2485,10 +2491,10 @@
       <c r="E42" t="s">
         <v>28</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>0</v>
       </c>
       <c r="H42">
@@ -2529,13 +2535,16 @@
       <c r="B43">
         <v>5</v>
       </c>
+      <c r="C43" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="E43" t="s">
         <v>28</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>0</v>
       </c>
       <c r="H43">
@@ -2579,10 +2588,10 @@
       <c r="E44" t="s">
         <v>28</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <v>0</v>
       </c>
       <c r="H44">
@@ -2626,10 +2635,10 @@
       <c r="E45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="4">
         <v>0</v>
       </c>
       <c r="H45" s="3">
@@ -2676,7 +2685,7 @@
       <c r="F46" t="s">
         <v>23</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="6">
         <v>75</v>
       </c>
       <c r="H46">
@@ -4039,10 +4048,10 @@
       <c r="E78" t="s">
         <v>29</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="4">
         <v>0</v>
       </c>
       <c r="H78">
@@ -4186,10 +4195,10 @@
       <c r="E81" t="s">
         <v>29</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="4">
         <v>0</v>
       </c>
       <c r="H81">
@@ -14024,6 +14033,9 @@
       <c r="B311">
         <v>1</v>
       </c>
+      <c r="C311" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E311" t="s">
         <v>22</v>
       </c>
@@ -14707,6 +14719,9 @@
       <c r="B327">
         <v>1</v>
       </c>
+      <c r="C327" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E327" t="s">
         <v>22</v>
       </c>
@@ -14866,7 +14881,7 @@
       <c r="F330" t="s">
         <v>23</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="4">
         <v>0</v>
       </c>
       <c r="H330">
@@ -14913,7 +14928,7 @@
       <c r="F331" t="s">
         <v>24</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="4">
         <v>0</v>
       </c>
       <c r="H331">
@@ -14960,7 +14975,7 @@
       <c r="F332" t="s">
         <v>26</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="4">
         <v>0</v>
       </c>
       <c r="H332">
@@ -15007,7 +15022,7 @@
       <c r="F333" t="s">
         <v>27</v>
       </c>
-      <c r="G333">
+      <c r="G333" s="4">
         <v>0</v>
       </c>
       <c r="H333">
@@ -15384,6 +15399,9 @@
       <c r="B343">
         <v>1</v>
       </c>
+      <c r="C343" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E343" t="s">
         <v>22</v>
       </c>
@@ -15543,7 +15561,7 @@
       <c r="F346" t="s">
         <v>23</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="4">
         <v>0</v>
       </c>
       <c r="H346">
@@ -15590,7 +15608,7 @@
       <c r="F347" t="s">
         <v>24</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="4">
         <v>0</v>
       </c>
       <c r="H347">
@@ -15637,7 +15655,7 @@
       <c r="F348" t="s">
         <v>26</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="4">
         <v>0</v>
       </c>
       <c r="H348">
@@ -15684,7 +15702,7 @@
       <c r="F349" t="s">
         <v>27</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="4">
         <v>0</v>
       </c>
       <c r="H349">
@@ -16061,6 +16079,9 @@
       <c r="B359">
         <v>1</v>
       </c>
+      <c r="C359" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="E359" t="s">
         <v>22</v>
       </c>
@@ -17756,56 +17777,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A397" s="1">
+    <row r="397" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="7">
         <v>395</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="4">
         <v>7</v>
       </c>
-      <c r="E397" t="s">
+      <c r="E397" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F397" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G397">
+      <c r="G397" s="4">
         <v>100</v>
       </c>
-      <c r="H397">
+      <c r="H397" s="4">
         <v>505.53100000000001</v>
       </c>
-      <c r="I397">
+      <c r="I397" s="4">
         <v>471</v>
       </c>
-      <c r="J397">
-        <v>0</v>
-      </c>
-      <c r="K397">
-        <v>0</v>
-      </c>
-      <c r="L397">
-        <v>0</v>
-      </c>
-      <c r="M397">
+      <c r="J397" s="4">
+        <v>0</v>
+      </c>
+      <c r="K397" s="4">
+        <v>0</v>
+      </c>
+      <c r="L397" s="4">
+        <v>0</v>
+      </c>
+      <c r="M397" s="4">
         <v>1E-3</v>
       </c>
-      <c r="N397">
+      <c r="N397" s="4">
         <v>225</v>
       </c>
-      <c r="O397">
+      <c r="O397" s="4">
         <v>225</v>
       </c>
-      <c r="P397">
-        <v>0</v>
-      </c>
-      <c r="Q397">
-        <v>0</v>
-      </c>
-      <c r="R397">
-        <v>1</v>
-      </c>
-      <c r="S397">
+      <c r="P397" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q397" s="4">
+        <v>0</v>
+      </c>
+      <c r="R397" s="4">
+        <v>1</v>
+      </c>
+      <c r="S397" s="4">
         <v>1</v>
       </c>
     </row>
@@ -20250,7 +20271,7 @@
       <c r="F454" t="s">
         <v>23</v>
       </c>
-      <c r="G454">
+      <c r="G454" s="8">
         <v>0</v>
       </c>
       <c r="H454">
@@ -20397,7 +20418,7 @@
       <c r="F457" t="s">
         <v>27</v>
       </c>
-      <c r="G457">
+      <c r="G457" s="8">
         <v>100</v>
       </c>
       <c r="H457">
@@ -25814,7 +25835,7 @@
       <c r="F584" t="s">
         <v>26</v>
       </c>
-      <c r="G584">
+      <c r="G584" s="8">
         <v>25</v>
       </c>
       <c r="H584">
@@ -27050,7 +27071,7 @@
       <c r="F614" t="s">
         <v>23</v>
       </c>
-      <c r="G614">
+      <c r="G614" s="8">
         <v>50</v>
       </c>
       <c r="H614">
@@ -27203,7 +27224,7 @@
       <c r="F617" t="s">
         <v>27</v>
       </c>
-      <c r="G617">
+      <c r="G617" s="8">
         <v>75</v>
       </c>
       <c r="H617">

--- a/experiments/20-01-22_15-22-34_all-cons.xlsx
+++ b/experiments/20-01-22_15-22-34_all-cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijiangh\Documents\pb_ws\pb-construction\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62DBB9A-9AC2-40AE-BD26-31F128A6BBDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07FB81-8BD9-4B06-8466-EE5AE4526D63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4690" uniqueCount="105">
   <si>
     <t>config_id</t>
   </si>
@@ -378,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,7 +443,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -455,6 +461,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -762,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="G488" sqref="G488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,6 +1564,7 @@
       <c r="D19" t="s">
         <v>31</v>
       </c>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -2234,6 +2242,7 @@
       <c r="D35" t="s">
         <v>33</v>
       </c>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -2506,7 +2515,7 @@
       <c r="J42">
         <v>322</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="4">
         <v>6.25</v>
       </c>
       <c r="L42">
@@ -2556,7 +2565,7 @@
       <c r="J43">
         <v>343.25</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="4">
         <v>3.75</v>
       </c>
       <c r="L43">
@@ -2574,7 +2583,7 @@
       <c r="P43">
         <v>0</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="4">
         <v>2.25</v>
       </c>
     </row>
@@ -2603,7 +2612,7 @@
       <c r="J44">
         <v>319</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="4">
         <v>6.75</v>
       </c>
       <c r="L44">
@@ -2650,7 +2659,7 @@
       <c r="J45" s="3">
         <v>319</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="4">
         <v>7</v>
       </c>
       <c r="L45" s="3">
@@ -3341,10 +3350,10 @@
       <c r="E62" t="s">
         <v>29</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <v>25</v>
       </c>
       <c r="H62">
@@ -3441,10 +3450,10 @@
       <c r="E64" t="s">
         <v>29</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <v>50</v>
       </c>
       <c r="H64">
@@ -21655,7 +21664,7 @@
       <c r="F486" t="s">
         <v>23</v>
       </c>
-      <c r="G486">
+      <c r="G486" s="4">
         <v>0</v>
       </c>
       <c r="H486">
@@ -25164,7 +25173,7 @@
       <c r="F568" t="s">
         <v>26</v>
       </c>
-      <c r="G568">
+      <c r="G568" s="8">
         <v>25</v>
       </c>
       <c r="H568">

--- a/experiments/20-01-22_15-22-34_all-cons.xlsx
+++ b/experiments/20-01-22_15-22-34_all-cons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijiangh\Documents\pb_ws\pb-construction\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF07FB81-8BD9-4B06-8466-EE5AE4526D63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6618C8-F8A0-42D2-BB4C-2FED26027A47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4690" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="105">
   <si>
     <t>config_id</t>
   </si>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="G488" sqref="G488"/>
+    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
+      <selection activeCell="J486" sqref="J486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21676,7 +21676,7 @@
       <c r="J486">
         <v>32.25</v>
       </c>
-      <c r="K486">
+      <c r="K486" s="8">
         <v>0.75</v>
       </c>
       <c r="L486">
@@ -21723,7 +21723,7 @@
       <c r="J487">
         <v>40.75</v>
       </c>
-      <c r="K487">
+      <c r="K487" s="8">
         <v>0</v>
       </c>
       <c r="L487">
@@ -21770,7 +21770,7 @@
       <c r="J488">
         <v>0</v>
       </c>
-      <c r="K488">
+      <c r="K488" s="8">
         <v>0</v>
       </c>
       <c r="L488">
@@ -21823,7 +21823,7 @@
       <c r="J489">
         <v>0</v>
       </c>
-      <c r="K489">
+      <c r="K489" s="8">
         <v>0</v>
       </c>
       <c r="L489">
